--- a/biology/Botanique/Pavetta_rubentifolia/Pavetta_rubentifolia.xlsx
+++ b/biology/Botanique/Pavetta_rubentifolia/Pavetta_rubentifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavetta rubentifolia S.D. Manning[2] est une espèce de plantes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. Elle est endémique du Cameroun. On la trouve dans les forêts submontagneuses de 800 à 1 600 m d'altitude de la région du Sud-Ouest, notamment sur les Monts Bakossi et à l'ouest de Bangem. Son habitat est menacé par l'agriculture et la collecte de bois[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavetta rubentifolia S.D. Manning est une espèce de plantes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. Elle est endémique du Cameroun. On la trouve dans les forêts submontagneuses de 800 à 1 600 m d'altitude de la région du Sud-Ouest, notamment sur les Monts Bakossi et à l'ouest de Bangem. Son habitat est menacé par l'agriculture et la collecte de bois.
 </t>
         </is>
       </c>
